--- a/Panels/parameter_estimates_Beta_PresenceAbsence.xlsx
+++ b/Panels/parameter_estimates_Beta_PresenceAbsence.xlsx
@@ -409,7 +409,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -428,7 +428,7 @@
         <v>0.004363971081081954</v>
       </c>
       <c r="G2">
-        <v>0.1057021108721088</v>
+        <v>0.1057021108721089</v>
       </c>
       <c r="H2">
         <v>0.001446159276731858</v>
@@ -440,7 +440,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -471,7 +471,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -496,20 +496,20 @@
         <v>0.004827267133053223</v>
       </c>
       <c r="I4">
-        <v>0.2142859718258447</v>
+        <v>0.2142859718258448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
-        <v>-6.5310445883076</v>
+        <v>-6.531044588307601</v>
       </c>
       <c r="C5">
-        <v>0.1947528621487244</v>
+        <v>0.1947528621487245</v>
       </c>
       <c r="D5">
         <v>0.01140095295846908</v>
@@ -533,7 +533,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -564,14 +564,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
         <v>-2.546288580353595</v>
       </c>
       <c r="C7">
-        <v>0.732698677468211</v>
+        <v>0.7326986774682111</v>
       </c>
       <c r="D7">
         <v>0.001643428377753594</v>
@@ -589,13 +589,13 @@
         <v>0.003646008134502684</v>
       </c>
       <c r="I7">
-        <v>-0.01050888921087898</v>
+        <v>-0.01050888921087899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -626,7 +626,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -657,14 +657,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
         <v>-3.97657691465695</v>
       </c>
       <c r="C10">
-        <v>0.5919340399131034</v>
+        <v>0.5919340399131035</v>
       </c>
       <c r="D10">
         <v>0.004137546239709495</v>
@@ -688,7 +688,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -719,7 +719,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -750,7 +750,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -766,7 +766,7 @@
         <v>-0.05389287754605355</v>
       </c>
       <c r="F13">
-        <v>0.00467356595961449</v>
+        <v>0.004673565959614491</v>
       </c>
       <c r="G13">
         <v>0.01062565077461295</v>
@@ -841,7 +841,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -903,7 +903,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -934,7 +934,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -965,7 +965,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -996,7 +996,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1027,7 +1027,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1058,7 +1058,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1077,7 +1077,7 @@
         <v>0.80203125</v>
       </c>
       <c r="G9">
-        <v>0.71225</v>
+        <v>0.7122500000000001</v>
       </c>
       <c r="H9">
         <v>0.5345</v>
@@ -1089,7 +1089,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1120,14 +1120,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
         <v>0.2869375</v>
       </c>
       <c r="C11">
-        <v>0.6733749999999999</v>
+        <v>0.673375</v>
       </c>
       <c r="D11">
         <v>0.41090625</v>
@@ -1151,7 +1151,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1170,7 +1170,7 @@
         <v>0.64559375</v>
       </c>
       <c r="G12">
-        <v>0.7329687499999999</v>
+        <v>0.73296875</v>
       </c>
       <c r="H12">
         <v>0.6523125</v>
@@ -1182,7 +1182,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1273,7 +1273,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1304,7 +1304,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1320,7 +1320,7 @@
         <v>0.2634375</v>
       </c>
       <c r="F3">
-        <v>0.99640625</v>
+        <v>0.9964062500000001</v>
       </c>
       <c r="G3">
         <v>0.1170625</v>
@@ -1335,7 +1335,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1366,11 +1366,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.96996875</v>
+        <v>0.9699687500000001</v>
       </c>
       <c r="C5">
         <v>0.30103125</v>
@@ -1397,7 +1397,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1428,7 +1428,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1459,7 +1459,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1490,7 +1490,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1521,7 +1521,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1552,7 +1552,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1583,7 +1583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1614,7 +1614,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
